--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>Land Ice</t>
+  </si>
+  <si>
+    <t>Sub-Topics</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Glaciers</t>
+  </si>
+  <si>
+    <t>4. Ice</t>
   </si>
   <si>
     <t>Specialization Version</t>
@@ -573,17 +588,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ZZ111"/>
+  <dimension ref="A1:ZZ116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -950,10 +972,12 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,11 +987,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1"/>
-    <row r="13" spans="1:2" s="2" customFormat="1"/>
-    <row r="14" spans="1:2" s="2" customFormat="1"/>
-    <row r="15" spans="1:2" s="2" customFormat="1"/>
-    <row r="16" spans="1:2" s="2" customFormat="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="1"/>
     <row r="18" s="2" customFormat="1"/>
     <row r="19" s="2" customFormat="1"/>
@@ -1063,10 +1103,15 @@
     <row r="109" s="2" customFormat="1"/>
     <row r="110" s="2" customFormat="1"/>
     <row r="111" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1"/>
+    <row r="113" s="2" customFormat="1"/>
+    <row r="114" s="2" customFormat="1"/>
+    <row r="115" s="2" customFormat="1"/>
+    <row r="116" s="2" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1088,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1099,371 +1144,371 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>13</v>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="b">
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1">
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1">
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="B22" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>40</v>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>43</v>
+      <c r="B32" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
-      <c r="B34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>20</v>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="12" t="b">
+      <c r="B35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>47</v>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
-      <c r="B36" s="14"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
-      <c r="B38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>20</v>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="12" t="b">
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>50</v>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
-      <c r="B40" s="14"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
-      <c r="B42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>20</v>
+      <c r="B42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
-      <c r="B43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="12" t="b">
+      <c r="B43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>54</v>
+      <c r="D43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
-      <c r="B44" s="14"/>
+      <c r="B44" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1494,10 +1539,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1505,206 +1550,206 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>56</v>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="12" t="b">
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="E15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="22" spans="2:6" ht="24" customHeight="1">
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="24" customHeight="1">
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="2:6" ht="24" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="24" customHeight="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="22" spans="2:6" ht="24" customHeight="1">
-      <c r="B22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>75</v>
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1740,10 +1785,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1751,132 +1796,132 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>77</v>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>85</v>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
+      <c r="B14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="B15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>88</v>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1904,10 +1949,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1915,568 +1960,568 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>90</v>
+      <c r="B4" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="12" t="b">
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="E15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="12" t="b">
+      <c r="E19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="12" t="b">
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1">
+      <c r="B32" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1">
+      <c r="B35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="24" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1">
+      <c r="B47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="24" customHeight="1">
+      <c r="B50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="B51" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="24" customHeight="1">
+      <c r="B58" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1">
-      <c r="B34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="E59" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="24" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" customHeight="1">
+      <c r="B63" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="66" spans="2:6" ht="24" customHeight="1">
+      <c r="B66" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1">
+      <c r="B67" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="14"/>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="24" customHeight="1">
-      <c r="B46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="E67" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="70" spans="2:6" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1">
+      <c r="B71" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="14"/>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1">
-      <c r="B50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="14"/>
-    </row>
-    <row r="62" spans="1:6" ht="24" customHeight="1">
-      <c r="B62" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="B63" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="14"/>
-    </row>
-    <row r="66" spans="2:6" ht="24" customHeight="1">
-      <c r="B66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="24" customHeight="1">
-      <c r="B68" s="14"/>
-    </row>
-    <row r="70" spans="2:6" ht="24" customHeight="1">
-      <c r="B70" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>143</v>
+      <c r="E71" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
-      <c r="B72" s="14"/>
+      <c r="B72" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="6">

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Glaciers" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Ice" sheetId="5" r:id="rId5"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Glaciers" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Ice" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -50,16 +51,25 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Glaciers</t>
-  </si>
-  <si>
-    <t>4. Ice</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Glaciers</t>
+  </si>
+  <si>
+    <t>5. Ice</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -71,34 +81,61 @@
     <t>Specialization Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Land ice key properties</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of landice model code</t>
   </si>
   <si>
     <t>cmip6.landice.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -113,7 +150,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -128,7 +165,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Ice Albedo</t>
@@ -143,9 +180,6 @@
     <t>cmip6.landice.key_properties.ice_albedo</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Prescribed</t>
   </si>
   <si>
@@ -158,7 +192,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Atmospheric Coupling Variables</t>
@@ -170,7 +204,7 @@
     <t>cmip6.landice.key_properties.atmospheric_coupling_variables</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Oceanic Coupling Variables</t>
@@ -182,7 +216,7 @@
     <t>cmip6.landice.key_properties.oceanic_coupling_variables</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Prognostic Variables</t>
@@ -203,7 +237,7 @@
     <t>Ice temperature</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -212,7 +246,7 @@
     <t>Software properties of land ice code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -224,7 +258,7 @@
     <t>cmip6.landice.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -236,7 +270,7 @@
     <t>cmip6.landice.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -248,7 +282,37 @@
     <t>cmip6.landice.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning methodology for land ice component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1 </t>
+  </si>
+  <si>
+    <t>Overview of tuning methodology for land ice component in landice model.</t>
+  </si>
+  <si>
+    <t>cmip6.landice.key_properties.tuning_applied.overview</t>
+  </si>
+  <si>
+    <t>2.3.2 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>General overview description of tuning (if any): explain and motivate the main targets and metrics retained. &amp;Document the relative weight given to climate performance metrics versus process oriented metrics, &amp;and on the possible conflicts with parameterization level tuning. In particular describe any struggle &amp;with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
+  </si>
+  <si>
+    <t>cmip6.landice.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -257,7 +321,7 @@
     <t>Land ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in landice model.</t>
@@ -266,7 +330,7 @@
     <t>cmip6.landice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in landice model.</t>
@@ -275,7 +339,7 @@
     <t>cmip6.landice.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Adaptive Grid</t>
@@ -290,7 +354,7 @@
     <t>cmip6.landice.grid.adaptive_grid</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>3.1.4 *</t>
   </si>
   <si>
     <t>Base Resolution</t>
@@ -305,7 +369,7 @@
     <t>cmip6.landice.grid.base_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.5 </t>
+    <t xml:space="preserve">3.1.5 </t>
   </si>
   <si>
     <t>Resolution Limit</t>
@@ -317,7 +381,7 @@
     <t>cmip6.landice.grid.resolution_limit</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>3.1.6 *</t>
   </si>
   <si>
     <t>Projection</t>
@@ -329,7 +393,7 @@
     <t>cmip6.landice.grid.projection</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Glaciers</t>
@@ -338,7 +402,7 @@
     <t>Land ice glaciers</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the glaciers in landice model.</t>
@@ -347,7 +411,7 @@
     <t>cmip6.landice.glaciers.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of land ice glaciers in landice model.</t>
@@ -356,10 +420,7 @@
     <t>cmip6.landice.glaciers.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Describe the treatment of glaciers, if any</t>
@@ -368,7 +429,7 @@
     <t>cmip6.landice.glaciers.description</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.4 </t>
+    <t xml:space="preserve">4.1.4 </t>
   </si>
   <si>
     <t>Dynamic Areal Extent</t>
@@ -380,7 +441,7 @@
     <t>cmip6.landice.glaciers.dynamic_areal_extent</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Ice</t>
@@ -389,7 +450,7 @@
     <t>Ice sheet and ice shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the ice in landice model.</t>
@@ -398,7 +459,7 @@
     <t>cmip6.landice.ice.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of ice sheet and ice shelf in landice model.</t>
@@ -407,7 +468,7 @@
     <t>cmip6.landice.ice.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>5.1.3 *</t>
   </si>
   <si>
     <t>Grounding Line Method</t>
@@ -431,7 +492,7 @@
     <t>Moving grid</t>
   </si>
   <si>
-    <t>4.1.4 *</t>
+    <t>5.1.4 *</t>
   </si>
   <si>
     <t>Ice Sheet</t>
@@ -443,7 +504,7 @@
     <t>cmip6.landice.ice.ice_sheet</t>
   </si>
   <si>
-    <t>4.1.5 *</t>
+    <t>5.1.5 *</t>
   </si>
   <si>
     <t>Ice Shelf</t>
@@ -455,7 +516,7 @@
     <t>cmip6.landice.ice.ice_shelf</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Ice --&gt; Mass Balance</t>
@@ -464,7 +525,7 @@
     <t>Description of the surface mass balance treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of description of the surface mass balance treatment in landice model.</t>
@@ -473,7 +534,7 @@
     <t>cmip6.landice.ice.mass_balance.overview</t>
   </si>
   <si>
-    <t>4.2.2 *</t>
+    <t>5.2.2 *</t>
   </si>
   <si>
     <t>Surface Mass Balance</t>
@@ -485,7 +546,7 @@
     <t>cmip6.landice.ice.mass_balance.surface_mass_balance</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Ice --&gt; Mass Balance --&gt; Basal</t>
@@ -494,7 +555,7 @@
     <t>Description of basal melting</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Bedrock</t>
@@ -506,7 +567,7 @@
     <t>cmip6.landice.ice.mass_balance.basal.bedrock</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.2 </t>
+    <t xml:space="preserve">5.3.2 </t>
   </si>
   <si>
     <t>Ocean</t>
@@ -518,7 +579,7 @@
     <t>cmip6.landice.ice.mass_balance.basal.ocean</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Ice --&gt; Mass Balance --&gt; Frontal</t>
@@ -527,7 +588,7 @@
     <t>Description of claving/melting from the ice shelf front</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>Calving</t>
@@ -539,7 +600,7 @@
     <t>cmip6.landice.ice.mass_balance.frontal.calving</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2 </t>
+    <t xml:space="preserve">5.4.2 </t>
   </si>
   <si>
     <t>Melting</t>
@@ -551,13 +612,13 @@
     <t>cmip6.landice.ice.mass_balance.frontal.melting</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>Ice --&gt; Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.1 </t>
+    <t xml:space="preserve">5.5.1 </t>
   </si>
   <si>
     <t>Overview of  in landice model.</t>
@@ -566,7 +627,7 @@
     <t>cmip6.landice.ice.dynamics.overview</t>
   </si>
   <si>
-    <t>4.5.2 *</t>
+    <t>5.5.2 *</t>
   </si>
   <si>
     <t>General description of ice sheet and ice shelf dynamics</t>
@@ -575,7 +636,7 @@
     <t>cmip6.landice.ice.dynamics.description</t>
   </si>
   <si>
-    <t>4.5.3 *</t>
+    <t>5.5.3 *</t>
   </si>
   <si>
     <t>Approximation</t>
@@ -596,7 +657,7 @@
     <t>Full stokes</t>
   </si>
   <si>
-    <t>4.5.4 *</t>
+    <t>5.5.4 *</t>
   </si>
   <si>
     <t>Adaptive Timestep</t>
@@ -608,7 +669,7 @@
     <t>cmip6.landice.ice.dynamics.adaptive_timestep</t>
   </si>
   <si>
-    <t>4.5.5 *</t>
+    <t>5.5.5 *</t>
   </si>
   <si>
     <t>Timestep</t>
@@ -627,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,9 +730,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -696,14 +756,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -753,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -770,10 +838,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -785,11 +850,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD15"/>
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,25 +1227,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1182,7 +1267,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD53"/>
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1195,309 +1354,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>20</v>
+      <c r="B2" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>30</v>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>35</v>
+      <c r="B15" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
+      <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>40</v>
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>41</v>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="24" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="B25" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>51</v>
+      <c r="A28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>53</v>
+      <c r="A29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>30</v>
+      <c r="B30" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>55</v>
+      <c r="A33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>57</v>
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
-      <c r="B35" s="12" t="s">
-        <v>41</v>
+      <c r="B35" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>62</v>
+      <c r="A39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
-      <c r="B40" s="7" t="s">
-        <v>63</v>
+      <c r="B40" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>65</v>
+      <c r="A42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>67</v>
+      <c r="A43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>69</v>
+      <c r="A46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>71</v>
+      <c r="A47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>73</v>
+      <c r="A50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>75</v>
+      <c r="A51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="12" t="s">
-        <v>30</v>
+      <c r="B52" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="24" customHeight="1">
+      <c r="B65" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="178" customHeight="1">
+      <c r="B66" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1512,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD27"/>
   <sheetViews>
@@ -1527,150 +1748,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
+      <c r="A1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>78</v>
+      <c r="B2" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>81</v>
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
+      <c r="A8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>84</v>
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>86</v>
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
+      <c r="A14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>91</v>
+      <c r="A17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>94</v>
+      <c r="A18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>96</v>
+      <c r="A21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>98</v>
+      <c r="A22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>100</v>
+      <c r="A25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>102</v>
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -1694,7 +1915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -1709,111 +1930,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>104</v>
+      <c r="A1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>105</v>
+      <c r="B2" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>108</v>
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
+      <c r="A8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>111</v>
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>113</v>
+      <c r="A13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>35</v>
+      <c r="B15" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>117</v>
+      <c r="A18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>119</v>
+      <c r="A19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -1829,7 +2050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD90"/>
   <sheetViews>
@@ -1844,482 +2065,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
+      <c r="A1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>122</v>
+      <c r="B2" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>125</v>
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
+      <c r="A8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>128</v>
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>130</v>
+      <c r="A13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>132</v>
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>138</v>
+      <c r="A17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>140</v>
+      <c r="A18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>142</v>
+      <c r="A21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>144</v>
+      <c r="A22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>146</v>
+      <c r="A26" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="7" t="s">
-        <v>147</v>
+      <c r="B27" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>32</v>
+      <c r="A29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>150</v>
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>152</v>
+      <c r="A33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>154</v>
+      <c r="A34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="12" t="s">
-        <v>35</v>
+      <c r="B35" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="178" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>156</v>
+      <c r="A39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="7" t="s">
-        <v>157</v>
+      <c r="B40" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>159</v>
+      <c r="A42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>161</v>
+      <c r="A43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>35</v>
+      <c r="B44" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>163</v>
+      <c r="A47" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>165</v>
+      <c r="A48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="12" t="s">
-        <v>35</v>
+      <c r="B49" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="178" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>167</v>
+      <c r="A53" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="7" t="s">
-        <v>168</v>
+      <c r="B54" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>170</v>
+      <c r="A56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>172</v>
+      <c r="A57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="12" t="s">
-        <v>35</v>
+      <c r="B58" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="178" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>174</v>
+      <c r="A61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>176</v>
+      <c r="A62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="12" t="s">
-        <v>35</v>
+      <c r="B63" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="178" customHeight="1">
       <c r="B64" s="11"/>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>178</v>
+      <c r="A67" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="7"/>
+      <c r="B68" s="13"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>32</v>
+      <c r="A70" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>181</v>
+      <c r="A71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>113</v>
+      <c r="A74" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>184</v>
+      <c r="A75" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="12" t="s">
-        <v>35</v>
+      <c r="B76" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="178" customHeight="1">
       <c r="B77" s="11"/>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>186</v>
+      <c r="A79" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>188</v>
+      <c r="A80" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="12" t="s">
-        <v>41</v>
+      <c r="B81" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="11"/>
       <c r="AA82" s="5" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AB82" s="5" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AD82" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>193</v>
+      <c r="A84" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>195</v>
+      <c r="A85" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
-      <c r="A88" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>197</v>
+      <c r="A88" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>200</v>
+      <c r="A89" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
@@ -42,7 +42,7 @@
     <t>GFDL-AM4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Ice</t>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_landice.xlsx
@@ -8,18 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Glaciers" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Ice" sheetId="6" r:id="rId6"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Glaciers" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Ice" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="217">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -48,22 +48,19 @@
     <t>Land Ice</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Glaciers</t>
-  </si>
-  <si>
-    <t>5. Ice</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Glaciers</t>
+  </si>
+  <si>
+    <t>4. Ice</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -84,58 +81,76 @@
     <t>1.1.0</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Land ice key properties</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Land ice key properties</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of landice model code</t>
   </si>
   <si>
     <t>cmip6.landice.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -150,7 +165,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -165,7 +180,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Ice Albedo</t>
@@ -189,10 +204,10 @@
     <t>Function of ice density</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Atmospheric Coupling Variables</t>
@@ -204,7 +219,7 @@
     <t>cmip6.landice.key_properties.atmospheric_coupling_variables</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Oceanic Coupling Variables</t>
@@ -216,7 +231,7 @@
     <t>cmip6.landice.key_properties.oceanic_coupling_variables</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Prognostic Variables</t>
@@ -237,7 +252,7 @@
     <t>Ice temperature</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -246,7 +261,7 @@
     <t>Software properties of land ice code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -258,7 +273,7 @@
     <t>cmip6.landice.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -270,7 +285,7 @@
     <t>cmip6.landice.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -282,7 +297,7 @@
     <t>cmip6.landice.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -291,16 +306,7 @@
     <t>Tuning methodology for land ice component</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for land ice component in landice model.</t>
-  </si>
-  <si>
-    <t>cmip6.landice.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -312,7 +318,7 @@
     <t>cmip6.landice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -321,7 +327,7 @@
     <t>Land ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in landice model.</t>
@@ -330,7 +336,7 @@
     <t>cmip6.landice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in landice model.</t>
@@ -339,7 +345,7 @@
     <t>cmip6.landice.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Adaptive Grid</t>
@@ -354,7 +360,7 @@
     <t>cmip6.landice.grid.adaptive_grid</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>2.1.1.4 *</t>
   </si>
   <si>
     <t>Base Resolution</t>
@@ -369,7 +375,7 @@
     <t>cmip6.landice.grid.base_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.5 </t>
+    <t xml:space="preserve">2.1.1.5 </t>
   </si>
   <si>
     <t>Resolution Limit</t>
@@ -381,7 +387,7 @@
     <t>cmip6.landice.grid.resolution_limit</t>
   </si>
   <si>
-    <t>3.1.6 *</t>
+    <t>2.1.1.6 *</t>
   </si>
   <si>
     <t>Projection</t>
@@ -393,7 +399,7 @@
     <t>cmip6.landice.grid.projection</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Glaciers</t>
@@ -402,7 +408,7 @@
     <t>Land ice glaciers</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the glaciers in landice model.</t>
@@ -411,7 +417,7 @@
     <t>cmip6.landice.glaciers.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of land ice glaciers in landice model.</t>
@@ -420,7 +426,7 @@
     <t>cmip6.landice.glaciers.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Describe the treatment of glaciers, if any</t>
@@ -429,7 +435,7 @@
     <t>cmip6.landice.glaciers.description</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">3.1.1.4 </t>
   </si>
   <si>
     <t>Dynamic Areal Extent</t>
@@ -441,7 +447,7 @@
     <t>cmip6.landice.glaciers.dynamic_areal_extent</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Ice</t>
@@ -450,7 +456,7 @@
     <t>Ice sheet and ice shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the ice in landice model.</t>
@@ -459,7 +465,7 @@
     <t>cmip6.landice.ice.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of ice sheet and ice shelf in landice model.</t>
@@ -468,7 +474,7 @@
     <t>cmip6.landice.ice.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>4.1.1.3 *</t>
   </si>
   <si>
     <t>Grounding Line Method</t>
@@ -492,7 +498,7 @@
     <t>Moving grid</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>4.1.1.4 *</t>
   </si>
   <si>
     <t>Ice Sheet</t>
@@ -504,7 +510,7 @@
     <t>cmip6.landice.ice.ice_sheet</t>
   </si>
   <si>
-    <t>5.1.5 *</t>
+    <t>4.1.1.5 *</t>
   </si>
   <si>
     <t>Ice Shelf</t>
@@ -516,7 +522,7 @@
     <t>cmip6.landice.ice.ice_shelf</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Ice --&gt; Mass Balance</t>
@@ -525,16 +531,7 @@
     <t>Description of the surface mass balance treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of description of the surface mass balance treatment in landice model.</t>
-  </si>
-  <si>
-    <t>cmip6.landice.ice.mass_balance.overview</t>
-  </si>
-  <si>
-    <t>5.2.2 *</t>
+    <t>4.2.1.1 *</t>
   </si>
   <si>
     <t>Surface Mass Balance</t>
@@ -546,7 +543,7 @@
     <t>cmip6.landice.ice.mass_balance.surface_mass_balance</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>4.2.2</t>
   </si>
   <si>
     <t>Ice --&gt; Mass Balance --&gt; Basal</t>
@@ -555,7 +552,7 @@
     <t>Description of basal melting</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.1 </t>
+    <t xml:space="preserve">4.2.2.1 </t>
   </si>
   <si>
     <t>Bedrock</t>
@@ -567,7 +564,7 @@
     <t>cmip6.landice.ice.mass_balance.basal.bedrock</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.2 </t>
+    <t xml:space="preserve">4.2.2.2 </t>
   </si>
   <si>
     <t>Ocean</t>
@@ -579,7 +576,7 @@
     <t>cmip6.landice.ice.mass_balance.basal.ocean</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Ice --&gt; Mass Balance --&gt; Frontal</t>
@@ -588,7 +585,7 @@
     <t>Description of claving/melting from the ice shelf front</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.1 </t>
+    <t xml:space="preserve">4.2.3.1 </t>
   </si>
   <si>
     <t>Calving</t>
@@ -600,7 +597,7 @@
     <t>cmip6.landice.ice.mass_balance.frontal.calving</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.2 </t>
+    <t xml:space="preserve">4.2.3.2 </t>
   </si>
   <si>
     <t>Melting</t>
@@ -612,22 +609,13 @@
     <t>cmip6.landice.ice.mass_balance.frontal.melting</t>
   </si>
   <si>
-    <t>5.5</t>
+    <t>4.3.1</t>
   </si>
   <si>
     <t>Ice --&gt; Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in landice model.</t>
-  </si>
-  <si>
-    <t>cmip6.landice.ice.dynamics.overview</t>
-  </si>
-  <si>
-    <t>5.5.2 *</t>
+    <t>4.3.1.1 *</t>
   </si>
   <si>
     <t>General description of ice sheet and ice shelf dynamics</t>
@@ -636,7 +624,7 @@
     <t>cmip6.landice.ice.dynamics.description</t>
   </si>
   <si>
-    <t>5.5.3 *</t>
+    <t>4.3.1.2 *</t>
   </si>
   <si>
     <t>Approximation</t>
@@ -657,7 +645,7 @@
     <t>Full stokes</t>
   </si>
   <si>
-    <t>5.5.4 *</t>
+    <t>4.3.1.3 *</t>
   </si>
   <si>
     <t>Adaptive Timestep</t>
@@ -669,7 +657,7 @@
     <t>cmip6.landice.ice.dynamics.adaptive_timestep</t>
   </si>
   <si>
-    <t>5.5.5 *</t>
+    <t>4.3.1.4 *</t>
   </si>
   <si>
     <t>Timestep</t>
@@ -688,7 +676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,13 +699,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -736,6 +730,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -743,21 +744,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -770,8 +758,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -821,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,31 +836,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+  <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,39 +1231,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1267,392 +1286,415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Glaciers,Ice"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>41</v>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>42</v>
+      <c r="B10" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>44</v>
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>46</v>
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>47</v>
+      <c r="B15" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>49</v>
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>52</v>
+      <c r="A19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>56</v>
+      <c r="AA21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>58</v>
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>60</v>
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
-        <v>42</v>
+      <c r="B25" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>62</v>
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>64</v>
+      <c r="A29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>42</v>
+      <c r="B30" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>66</v>
+      <c r="A33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>68</v>
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="11"/>
-      <c r="AA36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>56</v>
+      <c r="AA36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>76</v>
+      <c r="A42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>78</v>
+      <c r="A43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>80</v>
+      <c r="A46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>82</v>
+      <c r="A47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>84</v>
+      <c r="A50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>86</v>
+      <c r="A51" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="10" t="s">
-        <v>42</v>
+      <c r="B52" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -1660,65 +1702,43 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>44</v>
+      <c r="A59" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>92</v>
+      <c r="A60" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="24" customHeight="1">
-      <c r="B65" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="178" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B61" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="178" customHeight="1">
+      <c r="B62" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1742,156 +1762,156 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
+      <c r="A4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>102</v>
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
+      <c r="A8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>105</v>
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>47</v>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>107</v>
+      <c r="A13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="14" t="s">
         <v>110</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>112</v>
+      <c r="A17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="14" t="s">
         <v>115</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>117</v>
+      <c r="A21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>119</v>
+      <c r="A22" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>121</v>
+      <c r="A25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>123</v>
+      <c r="A26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -1924,117 +1944,117 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
+      <c r="A4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>129</v>
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
+      <c r="A8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>132</v>
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>47</v>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>94</v>
+      <c r="A13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>135</v>
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>47</v>
+      <c r="B15" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>137</v>
+      <c r="A18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>139</v>
+      <c r="A19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -2052,156 +2072,156 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD90"/>
+  <dimension ref="A1:XFD82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
+      <c r="A4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>145</v>
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
+      <c r="A8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>148</v>
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>47</v>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>150</v>
+      <c r="A13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>152</v>
+      <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
-      <c r="AA15" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC15" s="5" t="s">
+      <c r="AA15" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AB15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AE15" s="5" t="s">
-        <v>56</v>
+      <c r="AC15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>158</v>
+      <c r="A17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>160</v>
+      <c r="A18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>162</v>
+      <c r="A21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>164</v>
+      <c r="A22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -2209,342 +2229,298 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>44</v>
+      <c r="A29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="178" customHeight="1">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="B36" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="A39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="178" customHeight="1">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="178" customHeight="1">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="B50" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="178" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="178" customHeight="1">
+      <c r="B60" s="11"/>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="66" spans="1:30" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="24" customHeight="1">
+      <c r="B68" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="178" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
+      <c r="B73" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="178" customHeight="1">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="178" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="178" customHeight="1">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="A67" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="178" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="7" t="s">
+    </row>
+    <row r="74" spans="1:30" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+      <c r="AA74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="AB74" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>50</v>
+      <c r="AC74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" ht="24" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="A81" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="B81" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" ht="24" customHeight="1">
+        <v>215</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
-      <c r="AA82" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB82" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC82" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD82" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" ht="24" customHeight="1">
-      <c r="A84" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" ht="24" customHeight="1">
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:30" ht="24" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -2557,13 +2533,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>AA82:AD82</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>AA74:AD74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
